--- a/01_Seoul_CCTV/CCTV_in_Seoul.xlsx
+++ b/01_Seoul_CCTV/CCTV_in_Seoul.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nani/Desktop/GitHub/DataScience/01_Seoul_CCTV/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BB863-C103-934E-A2A6-B1531F7FB3BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="525" windowWidth="27735" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel_Import_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -47,152 +53,64 @@
     <t>강 남 구</t>
   </si>
   <si>
-    <t>강 남 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>강 동 구</t>
   </si>
   <si>
-    <t>강 동 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>강 북 구</t>
   </si>
   <si>
-    <t>강 북 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>강 서 구</t>
   </si>
   <si>
-    <t>강 서 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>관 악 구</t>
   </si>
   <si>
-    <t>관 악 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>광 진 구</t>
   </si>
   <si>
-    <t>광 진 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>구 로 구</t>
   </si>
   <si>
-    <t>구 로 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>금 천 구</t>
   </si>
   <si>
-    <t>금 천 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>노 원 구</t>
   </si>
   <si>
-    <t>노 원 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>도 봉 구</t>
   </si>
   <si>
-    <t>도 봉 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>동 작 구</t>
   </si>
   <si>
-    <t>동 작 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>마 포 구</t>
   </si>
   <si>
-    <t>마 포 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>서 초 구</t>
   </si>
   <si>
-    <t>서 초 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>성 동 구</t>
   </si>
   <si>
-    <t>성 동 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>성 북 구</t>
   </si>
   <si>
-    <t>성 북 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>송 파 구</t>
   </si>
   <si>
-    <t>송 파 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>양 천 구</t>
   </si>
   <si>
-    <t>양 천 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>은 평 구</t>
   </si>
   <si>
-    <t>은 평 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>용 산 구</t>
   </si>
   <si>
-    <t>용 산 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>종 로 구</t>
   </si>
   <si>
-    <t>종 로 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>중     구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>중 랑 구</t>
-  </si>
-  <si>
-    <t>중 랑 구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중 구</t>
@@ -216,16 +134,104 @@
   <si>
     <t>2012년</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강북구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광진구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구로구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금천구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노원구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도봉구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마포구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서초구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성동구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성북구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양천구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은평구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -525,13 +531,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -546,6 +552,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,7 +603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,9 +636,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,6 +688,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,19 +880,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -857,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -875,15 +918,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B2" s="14">
         <f t="shared" ref="B2:B13" si="0">SUM(C2:J2)</f>
@@ -914,9 +957,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B3" s="14">
         <f t="shared" si="0"/>
@@ -947,9 +990,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" si="0"/>
@@ -980,9 +1023,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
@@ -1013,9 +1056,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
@@ -1046,9 +1089,9 @@
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
@@ -1079,9 +1122,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B8" s="14">
         <f t="shared" si="0"/>
@@ -1112,9 +1155,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B9" s="14">
         <f t="shared" si="0"/>
@@ -1145,9 +1188,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B10" s="14">
         <f t="shared" si="0"/>
@@ -1178,9 +1221,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
@@ -1211,7 +1254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1239,9 +1282,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
@@ -1272,9 +1315,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B14" s="14">
         <v>1935</v>
@@ -1304,7 +1347,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1337,9 +1380,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B16" s="14">
         <f t="shared" si="1"/>
@@ -1370,9 +1413,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B17" s="14">
         <f t="shared" si="1"/>
@@ -1403,9 +1446,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B18" s="14">
         <f t="shared" si="1"/>
@@ -1436,9 +1479,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B19" s="14">
         <f t="shared" si="1"/>
@@ -1469,9 +1512,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B20" s="14">
         <f t="shared" si="1"/>
@@ -1502,7 +1545,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1535,9 +1578,9 @@
         <v>793</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B22" s="14">
         <v>2063</v>
@@ -1567,9 +1610,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B23" s="14">
         <f>SUM(C23:J23)</f>
@@ -1600,9 +1643,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B24" s="14">
         <f>SUM(C24:J24)</f>
@@ -1633,9 +1676,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B25" s="14">
         <f>SUM(C25:J25)</f>
@@ -1666,9 +1709,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="18" thickBot="1">
       <c r="A26" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B26" s="14">
         <f>SUM(C26:J26)</f>
@@ -1693,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1704,7 +1747,7 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,16 +1756,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1730,87 +1773,87 @@
         <v>4791</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7">
         <v>1202</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7">
         <v>1261</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7">
         <v>1216</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="19">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>3223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7">
         <v>1241</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="19">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7">
         <v>2746</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="19">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7">
         <v>1499</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="19">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7">
         <v>1752</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="19">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8">
         <v>919</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="19">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7">
         <v>1555</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="19">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1818,23 +1861,23 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="19">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B14" s="7">
         <v>1460</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="19">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7">
         <v>2548</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="19">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -1842,39 +1885,39 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="19">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7">
         <v>1766</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="19">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B18" s="7">
         <v>2155</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="19">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B19" s="7">
         <v>1222</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="19">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B20" s="7">
         <v>2359</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="19">
       <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
@@ -1882,41 +1925,41 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="19">
       <c r="A22" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7">
         <v>1990</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="19">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7">
         <v>2505</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="19">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B24" s="7">
         <v>1768</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="19">
       <c r="A25" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B25" s="7">
         <v>1168</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="20" thickBot="1">
       <c r="A26" s="9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B26" s="10">
         <v>1098</v>
